--- a/backend/result/sports_result.xlsx
+++ b/backend/result/sports_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,108 +436,198 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>DF</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>손흥민</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>토트넘</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>시즌</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>8번</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>콘테</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>유도</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>무승부</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>리버풀</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>영입</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>12</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>맨유</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>뉴캐슬</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>황희찬</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>손흥민</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>호날두</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>복귀</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>토트넘</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>최다</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>동점골</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>10</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/backend/result/sports_result.xlsx
+++ b/backend/result/sports_result.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -492,15 +492,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>시즌</t>
+          <t>영입</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6위 상승</t>
         </is>
       </c>
     </row>
@@ -510,15 +510,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8번</t>
+          <t>시즌</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1위 하락</t>
         </is>
       </c>
     </row>
@@ -528,15 +528,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>콘테</t>
+          <t>토레스</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -546,15 +546,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>유도</t>
+          <t>8번</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2위 하락</t>
         </is>
       </c>
     </row>
@@ -564,15 +564,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>무승부</t>
+          <t>콘테</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2위 하락</t>
         </is>
       </c>
     </row>
@@ -582,15 +582,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>리버풀</t>
+          <t>최고</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -600,15 +600,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>영입</t>
+          <t>유도</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3위 하락</t>
         </is>
       </c>
     </row>
@@ -618,15 +618,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>맨유</t>
+          <t>감독</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>

--- a/backend/result/sports_result.xlsx
+++ b/backend/result/sports_result.xlsx
@@ -456,15 +456,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>손흥민</t>
+          <t>토트넘</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1위 상승</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>토트넘</t>
+          <t>손흥민</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -482,7 +482,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1위 하락</t>
         </is>
       </c>
     </row>
@@ -496,11 +496,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6위 상승</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -510,15 +510,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>시즌</t>
+          <t>맨유</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1위 하락</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -528,15 +528,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>토레스</t>
+          <t>맨시티</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>1위 상승</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8번</t>
+          <t>시즌</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -554,7 +554,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2위 하락</t>
+          <t>1위 하락</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>콘테</t>
+          <t>최고</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -572,7 +572,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2위 하락</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -582,15 +582,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>최고</t>
+          <t>호날두</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>2위 상승</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>유도</t>
+          <t>첼시</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -608,7 +608,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3위 하락</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>감독</t>
+          <t>토레스</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -626,7 +626,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>1위 하락</t>
         </is>
       </c>
     </row>

--- a/backend/result/sports_result.xlsx
+++ b/backend/result/sports_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,15 +436,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>index</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>DF</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>diff</t>
         </is>
@@ -454,17 +459,20 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>토트넘</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1위 상승</t>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>김민재</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -472,17 +480,20 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>손흥민</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1위 하락</t>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>첼시</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -490,15 +501,18 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>영입</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>토트넘</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -508,15 +522,18 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>맨유</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>맨시티</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -526,17 +543,20 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>맨시티</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1위 상승</t>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>바르사</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>16</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -544,17 +564,20 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>시즌</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1위 하락</t>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>영입</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>16</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -562,15 +585,18 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>최고</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>10</v>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>감독</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>13</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -580,17 +606,20 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>호날두</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>10</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2위 상승</t>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>아스널</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>12</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1위 상승</t>
         </is>
       </c>
     </row>
@@ -598,17 +627,20 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>첼시</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>9</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10연승</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>12</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1위 하락</t>
         </is>
       </c>
     </row>
@@ -616,17 +648,20 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>토레스</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="n">
         <v>9</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1위 하락</t>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>리그</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>11</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/backend/result/sports_result.xlsx
+++ b/backend/result/sports_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +436,15 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>index</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>index</t>
+          <t>DF</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>DF</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>diff</t>
         </is>
@@ -459,18 +454,15 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>김민재</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>21</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -480,20 +472,17 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>첼시</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>19</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>맨시티</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2위 상승</t>
         </is>
       </c>
     </row>
@@ -501,20 +490,17 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>토트넘</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>17</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>영입</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3위 상승</t>
         </is>
       </c>
     </row>
@@ -522,20 +508,17 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>맨시티</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>17</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>첼시</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2위 하락</t>
         </is>
       </c>
     </row>
@@ -543,20 +526,17 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>바르사</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>16</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>감독</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2위 상승</t>
         </is>
       </c>
     </row>
@@ -564,20 +544,17 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>영입</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>16</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>바르사</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1위 하락</t>
         </is>
       </c>
     </row>
@@ -585,20 +562,17 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>감독</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>토트넘</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>13</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4위 하락</t>
         </is>
       </c>
     </row>
@@ -606,20 +580,17 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>아스널</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>12</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1위 상승</t>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>리그</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2위 상승</t>
         </is>
       </c>
     </row>
@@ -627,18 +598,15 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10연승</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>아스널</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>12</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>1위 하락</t>
         </is>
@@ -648,20 +616,17 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>리그</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>11</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10연승</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>12</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1위 하락</t>
         </is>
       </c>
     </row>
